--- a/Data/raw/Nanodrop_measurements/20241125_marly_extra_DNA_cleaning_roedeanst_DNA.xlsx
+++ b/Data/raw/Nanodrop_measurements/20241125_marly_extra_DNA_cleaning_roedeanst_DNA.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u_erazo/Documents/GitHub/Namibia_project/Data/Nanodrop_measurements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u_erazo/Documents/GitHub/Namibia_project/Data/raw/Nanodrop_measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CFAB18-0B13-8A4E-A5D1-89A87FA80738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F25677-D7AA-864E-9FF6-8BB4E7F8EE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{C7911E21-4819-4941-BE4B-D79206BF0948}"/>
+    <workbookView xWindow="28800" yWindow="-2600" windowWidth="38400" windowHeight="24000" activeTab="1" xr2:uid="{C7911E21-4819-4941-BE4B-D79206BF0948}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate_set-up DNA Plate16s r" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="161">
   <si>
     <t>Collection</t>
   </si>
@@ -495,12 +495,6 @@
   </si>
   <si>
     <t>A2801</t>
-  </si>
-  <si>
-    <t>260/2801</t>
-  </si>
-  <si>
-    <t>260/2301</t>
   </si>
   <si>
     <t>Qubit (ng/µl) DNA conc. original sample (16s_amplicon)</t>
@@ -1283,14 +1277,14 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>7350</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>651961</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>14767</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1313,8 +1307,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17170400" y="1638300"/>
-          <a:ext cx="12192000" cy="6916150"/>
+          <a:off x="17189302" y="0"/>
+          <a:ext cx="14710566" cy="7856279"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1628,8 +1622,8 @@
   </sheetPr>
   <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:Y65"/>
+    <sheetView zoomScale="92" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1717,7 +1711,7 @@
         <v>142</v>
       </c>
       <c r="M2" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N2" s="65"/>
       <c r="O2" s="8"/>
@@ -3321,7 +3315,7 @@
         <v>26</v>
       </c>
       <c r="N25" s="86" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -6133,8 +6127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36F44B0-33D3-3A45-BADC-557595492413}">
   <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0">
-      <selection activeCell="AG44" sqref="AG44"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="Y44" sqref="Y44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6170,16 +6164,16 @@
         <v>152</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L1" s="18" t="s">
         <v>0</v>
@@ -6877,7 +6871,7 @@
         <v>26</v>
       </c>
       <c r="K13" s="45" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L13" s="45" t="s">
         <v>51</v>
@@ -8526,10 +8520,10 @@
         <v>5.89</v>
       </c>
       <c r="X41" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y41" t="s">
         <v>159</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
@@ -8709,10 +8703,10 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="X44" s="91" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y44" t="s">
         <v>160</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
